--- a/src/main/java/com/csd/testdata/CSD_TestData.xlsx
+++ b/src/main/java/com/csd/testdata/CSD_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15520" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15520" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>CAH_TEST</t>
+  </si>
+  <si>
+    <t>IncName</t>
+  </si>
+  <si>
+    <t>contractName</t>
+  </si>
+  <si>
+    <t>LDAP is Down.This is a Test Incident</t>
+  </si>
+  <si>
+    <t>Sentinal is Down.This is a Test Incident</t>
+  </si>
+  <si>
+    <t>ES_TEST</t>
   </si>
 </sst>
 </file>
@@ -417,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -465,12 +480,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/com/csd/testdata/CSD_TestData.xlsx
+++ b/src/main/java/com/csd/testdata/CSD_TestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG050484\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15520" windowHeight="6950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14240" windowHeight="5680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
     <sheet name="Incident" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -39,15 +35,6 @@
     <t>Contracts</t>
   </si>
   <si>
-    <t>ESM Test Upgrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test URL </t>
-  </si>
-  <si>
-    <t>This Event is For Testing Pupose</t>
-  </si>
-  <si>
     <t>CAH_TEST</t>
   </si>
   <si>
@@ -64,6 +51,39 @@
   </si>
   <si>
     <t>ES_TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDAP Upgrade </t>
+  </si>
+  <si>
+    <t>StartDisplayDate</t>
+  </si>
+  <si>
+    <t>StopDisplayDate</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>This Event is For Testing Purpose</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>LDAP is down Expect Delay in Service</t>
+  </si>
+  <si>
+    <t>Sentinal is down Expect Delay in Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESM Test Upgrade Scheduled Maintainance </t>
+  </si>
+  <si>
+    <t>wiki.ucern.com</t>
+  </si>
+  <si>
+    <t>Scheduled Maintainance Expect Delay in Service</t>
   </si>
 </sst>
 </file>
@@ -113,9 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -438,13 +459,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
     <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="4" max="6" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="41.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,21 +477,71 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -480,40 +552,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
